--- a/lottery-system/data/tickets.xlsx
+++ b/lottery-system/data/tickets.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>Wed Jan 14 19:57:47 CST 2026</t>
+  </si>
+  <si>
+    <t>6,8,15,17,24,27,35</t>
+  </si>
+  <si>
+    <t>Wed Jan 14 20:37:40 CST 2026</t>
+  </si>
+  <si>
+    <t>9,17,24,30,31,32,36</t>
+  </si>
+  <si>
+    <t>Wed Jan 14 20:38:57 CST 2026</t>
   </si>
 </sst>
 </file>
@@ -95,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -181,6 +193,46 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
